--- a/public/uploads/exports/KOGYJA.xlsx
+++ b/public/uploads/exports/KOGYJA.xlsx
@@ -16,9 +16,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>株式会社コギ家　様 注文フォーマット</t>
+  </si>
+  <si>
+    <t>注文日</t>
+  </si>
+  <si>
+    <t>支払区分</t>
+  </si>
+  <si>
+    <t>配送先電話番号</t>
+  </si>
+  <si>
+    <t>配送先郵便番号</t>
+  </si>
+  <si>
+    <t>配送先都道府県</t>
+  </si>
+  <si>
+    <t>配送先住所</t>
+  </si>
+  <si>
+    <t>配送先氏名</t>
+  </si>
+  <si>
+    <t>品番</t>
+  </si>
+  <si>
+    <t>商品名</t>
+  </si>
+  <si>
+    <t>単価</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>到着希望日</t>
+  </si>
+  <si>
+    <t>配送希望時間帯</t>
+  </si>
+  <si>
+    <t>別途送料</t>
+  </si>
+  <si>
+    <t>仕入金額</t>
+  </si>
+  <si>
+    <t>代引き請求金額</t>
+  </si>
+  <si>
+    <t>代引き手数料</t>
+  </si>
+  <si>
+    <t>紹介料</t>
+  </si>
+  <si>
+    <t>追跡番号</t>
+  </si>
+  <si>
+    <t>振込み情報</t>
+  </si>
+  <si>
+    <t>合計</t>
+  </si>
+  <si>
+    <t>合計代引き金額：　19330</t>
+  </si>
+  <si>
+    <t>※1キロずつの小分けをお願いします。</t>
   </si>
 </sst>
 </file>
@@ -26,7 +95,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -36,8 +105,35 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FFff1100"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -47,15 +143,44 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE100"/>
+        <bgColor rgb="FFFFE100"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -357,17 +482,176 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A6" sqref="A6:T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="true" style="0"/>
+    <col min="2" max="2" width="10" customWidth="true" style="0"/>
+    <col min="3" max="3" width="10" customWidth="true" style="0"/>
+    <col min="4" max="4" width="9" customWidth="true" style="0"/>
+    <col min="5" max="5" width="14" customWidth="true" style="0"/>
+    <col min="6" max="6" width="18" customWidth="true" style="0"/>
+    <col min="7" max="7" width="18" customWidth="true" style="0"/>
+    <col min="8" max="8" width="10" customWidth="true" style="0"/>
+    <col min="9" max="9" width="18" customWidth="true" style="0"/>
+    <col min="10" max="10" width="15" customWidth="true" style="0"/>
+    <col min="11" max="11" width="15" customWidth="true" style="0"/>
+    <col min="12" max="12" width="15" customWidth="true" style="0"/>
+    <col min="13" max="13" width="15" customWidth="true" style="0"/>
+    <col min="14" max="14" width="15" customWidth="true" style="0"/>
+    <col min="15" max="15" width="15" customWidth="true" style="0"/>
+    <col min="16" max="16" width="15" customWidth="true" style="0"/>
+    <col min="17" max="17" width="15" customWidth="true" style="0"/>
+    <col min="18" max="18" width="15" customWidth="true" style="0"/>
+    <col min="19" max="19" width="15" customWidth="true" style="0"/>
+    <col min="20" max="20" width="25" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:20">
+      <c r="B1" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="N4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="I5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/public/uploads/exports/KOGYJA.xlsx
+++ b/public/uploads/exports/KOGYJA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>株式会社コギ家　様 注文フォーマット</t>
   </si>
@@ -54,40 +54,19 @@
     <t>数量</t>
   </si>
   <si>
-    <t>到着希望日</t>
-  </si>
-  <si>
-    <t>配送希望時間帯</t>
-  </si>
-  <si>
-    <t>別途送料</t>
-  </si>
-  <si>
-    <t>仕入金額</t>
-  </si>
-  <si>
-    <t>代引き請求金額</t>
-  </si>
-  <si>
-    <t>代引き手数料</t>
-  </si>
-  <si>
-    <t>紹介料</t>
-  </si>
-  <si>
-    <t>追跡番号</t>
-  </si>
-  <si>
-    <t>振込み情報</t>
-  </si>
-  <si>
     <t>合計</t>
   </si>
   <si>
     <t>合計代引き金額：　19330</t>
   </si>
   <si>
-    <t>※1キロずつの小分けをお願いします。</t>
+    <t>14/09/2020</t>
+  </si>
+  <si>
+    <t>代金引換</t>
+  </si>
+  <si>
+    <t>070-1398-2234</t>
   </si>
 </sst>
 </file>
@@ -482,10 +461,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:T6"/>
+      <selection activeCell="A26" sqref="A26:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -501,23 +480,14 @@
     <col min="9" max="9" width="18" customWidth="true" style="0"/>
     <col min="10" max="10" width="15" customWidth="true" style="0"/>
     <col min="11" max="11" width="15" customWidth="true" style="0"/>
-    <col min="12" max="12" width="15" customWidth="true" style="0"/>
-    <col min="13" max="13" width="15" customWidth="true" style="0"/>
-    <col min="14" max="14" width="15" customWidth="true" style="0"/>
-    <col min="15" max="15" width="15" customWidth="true" style="0"/>
-    <col min="16" max="16" width="15" customWidth="true" style="0"/>
-    <col min="17" max="17" width="15" customWidth="true" style="0"/>
-    <col min="18" max="18" width="15" customWidth="true" style="0"/>
-    <col min="19" max="19" width="15" customWidth="true" style="0"/>
-    <col min="20" max="20" width="25" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -551,108 +521,574 @@
       <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:16">
+      <c r="N4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="P4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="2" t="s">
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="N4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="I5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="2" t="s">
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5" s="3"/>
+      <c r="J5"/>
+      <c r="K5">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="2" t="s">
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
